--- a/data/trans_camb/IP12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP12-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,45</t>
+          <t>-4,24; 4,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 3,55</t>
+          <t>-5,14; 2,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,87</t>
+          <t>-4,69; 4,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,46</t>
+          <t>-2,76; 5,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,59</t>
+          <t>-3,11; 4,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,67</t>
+          <t>-1,95; 6,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,43</t>
+          <t>-2,42; 3,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,65</t>
+          <t>-3,1; 2,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,04</t>
+          <t>-1,92; 4,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>-4,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>-13,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>-4,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>12,7%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 181,45</t>
+          <t>-41,56; 62,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 110,26</t>
+          <t>-47,91; 46,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 176,19</t>
+          <t>-44,51; 67,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 111,19</t>
+          <t>-36,7; 130,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 90,23</t>
+          <t>-42,71; 107,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 114,8</t>
+          <t>-27,45; 161,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 104,19</t>
+          <t>-28,25; 52,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 64,01</t>
+          <t>-35,47; 39,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 99,39</t>
+          <t>-23,76; 68,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 4,14</t>
+          <t>-0,65; 6,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 2,92</t>
+          <t>-2,6; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,27</t>
+          <t>-0,82; 5,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 5,37</t>
+          <t>-2,19; 4,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,21</t>
+          <t>-2,8; 3,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,21</t>
+          <t>-1,96; 4,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,12</t>
+          <t>-0,48; 4,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,17</t>
+          <t>-1,86; 2,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,06</t>
+          <t>-0,69; 4,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,58%</t>
+          <t>53,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,03%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>51,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,88%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>35,31%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,56; 62,38</t>
+          <t>-14,21; 181,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 46,22</t>
+          <t>-41,5; 110,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 67,01</t>
+          <t>-16,2; 176,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 130,02</t>
+          <t>-32,39; 111,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 107,02</t>
+          <t>-38,38; 90,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 161,01</t>
+          <t>-27,9; 114,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 52,37</t>
+          <t>-8,09; 104,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 39,16</t>
+          <t>-30,69; 64,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 68,11</t>
+          <t>-10,87; 99,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP12-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,46</t>
+          <t>-3,9; 6,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,37</t>
+          <t>-6,62; 3,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,95</t>
+          <t>-5,37; 8,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 8,74</t>
+          <t>-2,17; 9,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 9,41</t>
+          <t>-6,36; 5,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,18</t>
+          <t>-6,3; 6,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,57</t>
+          <t>-1,59; 6,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,34</t>
+          <t>-4,91; 3,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,97</t>
+          <t>-3,83; 5,39</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>-22,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,25%</t>
+          <t>42,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>-5,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>-7,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 149,07</t>
+          <t>-39,26; 142,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 89,75</t>
+          <t>-65,23; 86,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,58; 128,59</t>
+          <t>-55,88; 149,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 151,99</t>
+          <t>-23,18; 164,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 160,42</t>
+          <t>-53,82; 103,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,54; 90,54</t>
+          <t>-59,63; 124,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 112,11</t>
+          <t>-18,19; 104,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 88,65</t>
+          <t>-44,57; 60,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 66,13</t>
+          <t>-39,33; 81,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 4,14</t>
+          <t>-2,86; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 2,92</t>
+          <t>-4,65; 3,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,27</t>
+          <t>-3,49; 5,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 5,37</t>
+          <t>-1,45; 6,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,21</t>
+          <t>0,8; 8,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,21</t>
+          <t>-1,89; 6,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,12</t>
+          <t>-1,03; 4,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,17</t>
+          <t>-0,91; 4,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,06</t>
+          <t>-1,46; 4,55</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,58%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,03%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,88%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>20,38%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,56; 62,38</t>
+          <t>-28,87; 89,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 46,22</t>
+          <t>-47,39; 48,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 67,01</t>
+          <t>-38,23; 76,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 130,02</t>
+          <t>-19,43; 140,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 107,02</t>
+          <t>8,07; 187,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 161,01</t>
+          <t>-25,97; 146,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 52,37</t>
+          <t>-12,17; 78,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 39,16</t>
+          <t>-11,27; 85,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 68,11</t>
+          <t>-18,19; 74,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,45</t>
+          <t>-5,25; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 3,55</t>
+          <t>-4,35; 5,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,87</t>
+          <t>-4,73; 4,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,46</t>
+          <t>-5,08; 5,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 3,59</t>
+          <t>-7,1; 2,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 4,67</t>
+          <t>-5,5; 5,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,43</t>
+          <t>-3,88; 3,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,65</t>
+          <t>-4,38; 2,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,04</t>
+          <t>-3,68; 3,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>-24,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>-10,27%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>-1,06%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 181,45</t>
+          <t>-56,21; 87,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 110,26</t>
+          <t>-44,66; 117,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 176,19</t>
+          <t>-48,8; 97,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 111,19</t>
+          <t>-45,88; 118,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 90,23</t>
+          <t>-62,55; 47,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 114,8</t>
+          <t>-48,97; 96,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 104,19</t>
+          <t>-39,07; 62,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 64,01</t>
+          <t>-45,45; 49,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 99,39</t>
+          <t>-37,58; 58,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>2,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,17</t>
+          <t>0,66; 8,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,97</t>
+          <t>-2,47; 4,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,66</t>
+          <t>0,11; 7,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,46</t>
+          <t>-2,26; 4,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,77</t>
+          <t>-2,89; 4,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,41</t>
+          <t>-1,58; 5,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,88</t>
+          <t>0,36; 5,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,3</t>
+          <t>-1,41; 3,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,74</t>
+          <t>0,32; 5,36</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>120,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>40,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>74,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>70,4%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 71,89</t>
+          <t>2,79; 348,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 34,06</t>
+          <t>-51,84; 220,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 64,56</t>
+          <t>-4,59; 315,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 80,85</t>
+          <t>-42,86; 181,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 69,18</t>
+          <t>-52,98; 164,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 64,74</t>
+          <t>-31,17; 218,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,62; 67,37</t>
+          <t>5,3; 195,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 41,49</t>
+          <t>-31,36; 119,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 49,72</t>
+          <t>4,09; 184,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 4,28</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 1,95</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 3,48</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 4,52</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 3,77</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 3,01</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 3,75</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 2,17</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 2,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>33,72%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>31,08%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-8,49; 75,07</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-27,57; 33,63</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-15,09; 59,23</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 84,32</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-12,48; 69,44</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-19,15; 57,8</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 64,18</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-12,59; 37,41</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 45,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP12-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 6,88</t>
+          <t>-3,96; 6,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 3,56</t>
+          <t>-7,0; 3,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 8,36</t>
+          <t>-5,16; 8,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,38</t>
+          <t>-2,85; 9,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,68</t>
+          <t>-4,78; 6,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 6,78</t>
+          <t>-6,13; 6,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 6,55</t>
+          <t>-1,62; 6,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 3,53</t>
+          <t>-4,44; 3,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 5,39</t>
+          <t>-3,96; 5,65</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 142,85</t>
+          <t>-40,62; 140,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 86,22</t>
+          <t>-64,35; 85,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,88; 149,07</t>
+          <t>-50,56; 179,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 164,71</t>
+          <t>-26,4; 161,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,82; 103,86</t>
+          <t>-42,99; 116,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,63; 124,17</t>
+          <t>-60,06; 118,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 104,2</t>
+          <t>-16,29; 108,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,57; 60,4</t>
+          <t>-44,45; 55,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 81,97</t>
+          <t>-42,6; 84,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,41</t>
+          <t>-3,04; 5,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,04</t>
+          <t>-4,98; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,0</t>
+          <t>-3,81; 5,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 6,64</t>
+          <t>-1,66; 6,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 8,94</t>
+          <t>0,71; 9,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,89</t>
+          <t>-1,63; 7,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,47</t>
+          <t>-1,07; 4,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,83</t>
+          <t>-1,27; 4,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 4,55</t>
+          <t>-1,66; 4,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 89,67</t>
+          <t>-30,48; 88,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,39; 48,82</t>
+          <t>-47,88; 44,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,23; 76,87</t>
+          <t>-36,95; 85,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 140,38</t>
+          <t>-21,83; 132,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 187,54</t>
+          <t>5,65; 185,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 146,44</t>
+          <t>-23,66; 154,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 78,39</t>
+          <t>-13,17; 75,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 85,96</t>
+          <t>-15,51; 75,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 74,89</t>
+          <t>-21,25; 71,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 4,25</t>
+          <t>-5,26; 4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 5,06</t>
+          <t>-4,42; 4,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,54</t>
+          <t>-4,47; 4,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 5,88</t>
+          <t>-5,06; 5,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 2,59</t>
+          <t>-7,38; 2,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,03</t>
+          <t>-6,37; 4,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,73</t>
+          <t>-4,45; 3,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,76</t>
+          <t>-4,16; 2,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 3,31</t>
+          <t>-3,79; 3,38</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 87,78</t>
+          <t>-55,74; 97,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 117,46</t>
+          <t>-45,36; 103,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 97,95</t>
+          <t>-49,06; 110,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 118,16</t>
+          <t>-45,39; 101,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,55; 47,64</t>
+          <t>-65,11; 45,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 96,77</t>
+          <t>-53,24; 85,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 62,12</t>
+          <t>-42,13; 55,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 49,97</t>
+          <t>-43,28; 45,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 58,46</t>
+          <t>-39,53; 56,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 8,89</t>
+          <t>0,94; 9,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 4,7</t>
+          <t>-2,17; 4,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 7,69</t>
+          <t>0,48; 7,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,83</t>
+          <t>-2,31; 4,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,36</t>
+          <t>-2,66; 4,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 5,3</t>
+          <t>-1,98; 4,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,75</t>
+          <t>0,24; 5,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,61</t>
+          <t>-1,42; 3,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,36</t>
+          <t>0,28; 5,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 348,61</t>
+          <t>9,43; 390,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 220,2</t>
+          <t>-48,11; 195,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 315,98</t>
+          <t>3,27; 313,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 181,23</t>
+          <t>-44,55; 178,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,98; 164,51</t>
+          <t>-51,01; 173,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 218,26</t>
+          <t>-36,46; 212,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,3; 195,04</t>
+          <t>2,06; 195,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 119,85</t>
+          <t>-29,57; 123,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,09; 184,58</t>
+          <t>0,73; 186,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 4,28</t>
+          <t>-0,44; 4,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,95</t>
+          <t>-2,21; 1,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,48</t>
+          <t>-0,97; 3,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,52</t>
+          <t>-0,01; 4,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,77</t>
+          <t>-0,6; 3,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 3,01</t>
+          <t>-1,56; 3,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,75</t>
+          <t>0,36; 3,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,17</t>
+          <t>-0,85; 2,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,61</t>
+          <t>-0,51; 2,63</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 75,07</t>
+          <t>-5,74; 74,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 33,63</t>
+          <t>-28,16; 34,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 59,23</t>
+          <t>-14,25; 67,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 84,32</t>
+          <t>-1,04; 80,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 69,44</t>
+          <t>-8,51; 70,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 57,8</t>
+          <t>-21,39; 54,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,37; 64,18</t>
+          <t>5,04; 63,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 37,41</t>
+          <t>-12,05; 36,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 45,19</t>
+          <t>-6,67; 46,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP12-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,64</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>1,38</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-1,72</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,64</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 6,92</t>
+          <t>-2,47; 9,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 3,42</t>
+          <t>-5,19; 6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 8,87</t>
+          <t>-6,49; 6,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 9,56</t>
+          <t>-3,84; 6,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 6,46</t>
+          <t>-6,25; 3,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 6,38</t>
+          <t>-5,02; 8,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 6,74</t>
+          <t>-1,25; 6,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,37</t>
+          <t>-4,45; 3,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 5,65</t>
+          <t>-3,93; 5,8</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>42,32%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-7,51%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>18,02%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-22,46%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>16,45%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>42,32%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 140,77</t>
+          <t>-22,03; 162,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,35; 85,76</t>
+          <t>-44,96; 129,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,56; 179,55</t>
+          <t>-61,73; 100,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,4; 161,76</t>
+          <t>-40,43; 135,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,99; 116,98</t>
+          <t>-64,66; 58,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,06; 118,11</t>
+          <t>-52,62; 177,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 108,6</t>
+          <t>-13,02; 124,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,45; 55,84</t>
+          <t>-43,53; 58,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-42,6; 84,5</t>
+          <t>-40,58; 98,67</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,74</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,33</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,69</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,74</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 5,2</t>
+          <t>-1,72; 6,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 2,83</t>
+          <t>0,97; 9,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 5,09</t>
+          <t>-2,01; 6,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 6,41</t>
+          <t>-2,32; 5,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,04</t>
+          <t>-4,39; 3,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 7,08</t>
+          <t>-3,24; 5,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,35</t>
+          <t>-1,11; 4,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,49</t>
+          <t>-1,08; 4,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 4,36</t>
+          <t>-1,46; 4,63</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>35,1%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>74,7%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31,31%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>16,68%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-8,62%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,95%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>35,1%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>74,7%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>19,5%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 88,34</t>
+          <t>-21,25; 131,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 44,21</t>
+          <t>9,89; 190,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,95; 85,75</t>
+          <t>-26,03; 138,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 132,56</t>
+          <t>-23,66; 88,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 185,8</t>
+          <t>-46,17; 55,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 154,75</t>
+          <t>-33,34; 93,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 75,17</t>
+          <t>-13,99; 78,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 75,24</t>
+          <t>-11,89; 75,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 71,42</t>
+          <t>-17,89; 77,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,6</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,4</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>0,02</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,66</t>
+          <t>-4,99; 5,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 4,82</t>
+          <t>-7,63; 2,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 4,75</t>
+          <t>-5,85; 5,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,71</t>
+          <t>-5,72; 3,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 2,48</t>
+          <t>-4,17; 5,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 4,77</t>
+          <t>-5,36; 4,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 3,38</t>
+          <t>-3,94; 3,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 2,65</t>
+          <t>-4,07; 2,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,38</t>
+          <t>-3,82; 3,4</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-24,4%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-8,48%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>5,73%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-24,4%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>0,2%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-55,74; 97,81</t>
+          <t>-45,91; 115,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 103,11</t>
+          <t>-64,4; 53,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 110,02</t>
+          <t>-46,87; 109,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 101,95</t>
+          <t>-59,82; 82,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,11; 45,54</t>
+          <t>-43,58; 140,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,24; 85,36</t>
+          <t>-55,05; 101,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,13; 55,44</t>
+          <t>-41,0; 57,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,28; 45,99</t>
+          <t>-42,65; 46,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,53; 56,55</t>
+          <t>-38,35; 60,52</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>4,55</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,16</t>
+          <t>-2,42; 5,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,49</t>
+          <t>-2,45; 4,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,63</t>
+          <t>-1,96; 4,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,74</t>
+          <t>0,77; 9,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 4,46</t>
+          <t>-2,37; 4,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,97</t>
+          <t>0,27; 7,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,75</t>
+          <t>0,23; 5,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,77</t>
+          <t>-1,51; 3,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,24</t>
+          <t>-0,07; 5,07</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>29,39%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20,38%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29,21%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>120,18%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>24,11%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>99,79%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>29,39%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>20,38%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>40,55%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>62,87%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,43; 390,69</t>
+          <t>-44,27; 193,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 195,83</t>
+          <t>-45,66; 168,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 313,31</t>
+          <t>-34,62; 177,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 178,79</t>
+          <t>4,6; 367,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 173,25</t>
+          <t>-49,55; 199,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 212,91</t>
+          <t>0,54; 330,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 195,46</t>
+          <t>1,61; 187,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,57; 123,16</t>
+          <t>-31,18; 120,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 186,41</t>
+          <t>-2,29; 172,56</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,88</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,05</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,13</t>
+          <t>-0,06; 4,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,93</t>
+          <t>-0,88; 3,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,73</t>
+          <t>-1,47; 3,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,34</t>
+          <t>-0,27; 4,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,89</t>
+          <t>-2,16; 1,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,04</t>
+          <t>-1,25; 3,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,6</t>
+          <t>0,61; 3,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,16</t>
+          <t>-0,95; 2,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,63</t>
+          <t>-0,59; 2,66</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>33,72%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>28,63%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-0,74%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>19,43%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>33,72%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>22,9%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>14,62%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 74,89</t>
+          <t>-1,3; 80,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 34,84</t>
+          <t>-11,39; 69,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 67,78</t>
+          <t>-19,53; 59,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 80,77</t>
+          <t>-4,72; 71,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 70,0</t>
+          <t>-28,71; 34,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 54,3</t>
+          <t>-16,31; 62,95</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,04; 63,16</t>
+          <t>7,62; 67,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 36,95</t>
+          <t>-13,13; 41,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 46,66</t>
+          <t>-8,02; 47,48</t>
         </is>
       </c>
     </row>
